--- a/case_studies/case_study_pwas/z_comparisonStudy/crossed_barrel/z_results/results_pwas_edbo.xlsx
+++ b/case_studies/case_study_pwas/z_comparisonStudy/crossed_barrel/z_results/results_pwas_edbo.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mengjia\Desktop\IMT\z-Research\a_on_going_project\MILP_IC\Rxn opt benchmark\z_olympus_code\olympus\case_studies\case_study_pwas\z_comparisonStudy\crossed_barrel\z_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CA7F7-D7B1-46B9-8A38-2368D5DD75B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C5937E-DCBC-4751-876E-9B772F7347F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{BDEB3E94-CE64-45A4-91F6-89102CB62C7E}"/>
   </bookViews>
   <sheets>
     <sheet name="pwas" sheetId="1" r:id="rId1"/>
-    <sheet name="edbo_100" sheetId="2" r:id="rId2"/>
-    <sheet name="edbo_10" sheetId="3" r:id="rId3"/>
-    <sheet name="edbo_5" sheetId="4" r:id="rId4"/>
+    <sheet name="edbo_1" sheetId="2" r:id="rId2"/>
+    <sheet name="edbo_2" sheetId="3" r:id="rId3"/>
+    <sheet name="edbo_3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -14936,7 +14936,7 @@
   <dimension ref="A1:AY31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
